--- a/medicine/Enfance/Vincent_Villeminot/Vincent_Villeminot.xlsx
+++ b/medicine/Enfance/Vincent_Villeminot/Vincent_Villeminot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Villeminot, né le 24 février 1972[1] ou le 17 mai 1972[2], est un auteur français de littérature jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Villeminot, né le 24 février 1972 ou le 17 mai 1972, est un auteur français de littérature jeunesse.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Villeminot est diplômé de sciences politiques (Paris). En 1994, il étudie également au Centre de formation des journalistes (CFJ)[3]. À l'âge de 22 ans il part en Égypte avec son épouse où il participe à la création d'une université d'enseignement du journalisme français. Après avoir collaboré à plusieurs publications, dont le journal d'insertion La Rue, il se tourne vers l'écriture romanesque : il est désormais auteur à temps plein, pour les adultes comme les plus jeunes. Il compte à son actif une trentaine d'ouvrages pour les enfants, et explore aujourd'hui dans ses romans pour les adolescents plusieurs facettes du fantastique et de l'anticipation.
-Son roman jeunesse Samedi 14 novembre, publié en 2016, s'articule autour des Attentats du 13 novembre 2015 en France[4].
-Le Copain de la fille du tueur, est également publié en 2016. Michel Abescat, dans son avis critique de Télérama, écrit : « cette hybridation des genres  qui fait le sel de ce roman funambule, en équilibre subtil sur de multiples émotions que l’auteur traite à vif, réussissant un texte à la fois profond et à fleur de peau[5]. »
-En 2019, Nous sommes l'étincelle, toujours selon le journaliste de Télérama, est « l’histoire d’une formidable utopie[6] », et l'auteur « donne à son récit une voix superbement énergique, âpre, lyrique, bombardant le lecteur de mille émotions. Sans doute est-ce là son plus beau roman, ambitieux et engagé[6]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Villeminot est diplômé de sciences politiques (Paris). En 1994, il étudie également au Centre de formation des journalistes (CFJ). À l'âge de 22 ans il part en Égypte avec son épouse où il participe à la création d'une université d'enseignement du journalisme français. Après avoir collaboré à plusieurs publications, dont le journal d'insertion La Rue, il se tourne vers l'écriture romanesque : il est désormais auteur à temps plein, pour les adultes comme les plus jeunes. Il compte à son actif une trentaine d'ouvrages pour les enfants, et explore aujourd'hui dans ses romans pour les adolescents plusieurs facettes du fantastique et de l'anticipation.
+Son roman jeunesse Samedi 14 novembre, publié en 2016, s'articule autour des Attentats du 13 novembre 2015 en France.
+Le Copain de la fille du tueur, est également publié en 2016. Michel Abescat, dans son avis critique de Télérama, écrit : « cette hybridation des genres  qui fait le sel de ce roman funambule, en équilibre subtil sur de multiples émotions que l’auteur traite à vif, réussissant un texte à la fois profond et à fleur de peau. »
+En 2019, Nous sommes l'étincelle, toujours selon le journaliste de Télérama, est « l’histoire d’une formidable utopie », et l'auteur « donne à son récit une voix superbement énergique, âpre, lyrique, bombardant le lecteur de mille émotions. Sans doute est-ce là son plus beau roman, ambitieux et engagé. »
 </t>
         </is>
       </c>
@@ -547,14 +561,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Recueils
-Histoires pour faire peur, Paris, Fleurus, 2011, 61 p. (ISBN 978-2-215-09804-1).
+          <t>Recueils</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Histoires pour faire peur, Paris, Fleurus, 2011, 61 p. (ISBN 978-2-215-09804-1).
 Anatole n'aime pas l'école  (ill. Laurent Parienty), Paris, Fleurus, coll. « J'aime la vie ! », 2003, 24 p. (ISBN 2-215-04433-0).
 Ma première grande histoire de fée  (ill. Hervé Florès), Paris, Fleurus, coll. « Ma première grande histoire de… », 2007, 20 p. (ISBN 978-2-215-04647-9).
 Vincent Villeminot et Claire Renaud, 13 histoires maboules d'école qui rigole !, Paris, Fleurus, coll. « 13 histoires maboules… », 2007, 76 p. (ISBN 978-2-215-04654-7).
-Bienvenue à Monstroville !, Paris, Fleurus, 2012, 64 p. (ISBN 978-2-215-11756-8).
-Romans jeunesse
-La Confrérie des âmes, Paris, Plon jeunesse, coll. « Héroïc Fantasy », 2008, 403 p. (ISBN 978-2-259-20891-8).
+Bienvenue à Monstroville !, Paris, Fleurus, 2012, 64 p. (ISBN 978-2-215-11756-8).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincent_Villeminot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Villeminot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Confrérie des âmes, Paris, Plon jeunesse, coll. « Héroïc Fantasy », 2008, 403 p. (ISBN 978-2-259-20891-8).
 La Confrérie des âmes. 2 : Corps et âmes, Paris, Plon jeunesse, coll. « Héroïc Fantasy », 2010, 377 p. (ISBN 978-2-259-21143-7).
 Le Livre des mondes perdus, Paris, Fleurus, 2010, 176 p. (ISBN 978-2-215-04935-7).
 Whisper girls, vol. 1, Paris, Fleurus, 2011, 266 p. (ISBN 978-2-215-09833-1).
@@ -567,18 +620,52 @@
 Ma famille normale contre les zombies  (ill. Yann Autret), Paris, Nathan, 2015, 256 p. (ISBN 978-2-09-255330-5).
 Ma famille normale contre les yétis  (ill. Yann Autret), Paris, Nathan, 2015, 256 p. (ISBN 978-2-09-255331-2).
 U4 (série) :
-Stéphane, Paris, Nathan / Syros, 2015, 448 p. (ISBN 978-2-09-255616-0)[7].
+Stéphane, Paris, Nathan / Syros, 2015, 448 p. (ISBN 978-2-09-255616-0).
 Vincent Villeminot, Yves Grevet, Carole Trébor et Florence Hinckel, Contagion, Paris, Nathan, 2016, 449 p. (ISBN 978-2-09-256718-0).
-La Brigade de l'ombre, vol. 1 : La prochaine fois ce sera toi, Bruxelles, Casterman, 2016, 307 p. (ISBN 978-2-203-10636-9). Prix polar jeunesse de Cognac[8].
+La Brigade de l'ombre, vol. 1 : La prochaine fois ce sera toi, Bruxelles, Casterman, 2016, 307 p. (ISBN 978-2-203-10636-9). Prix polar jeunesse de Cognac.
 Les Pluies, Paris, Fleurus, 2016, 320 p. (ISBN 978-2-215-13214-1).
-Samedi 14 novembre, Paris, Sarbacane, 2016, 216 p. (ISBN 978-2-84865-922-0, présentation en ligne)[4].
-Le Copain de la fille du tueur, Paris, Nathan, 2016, 263 p. (ISBN 978-2-09-256522-3, présentation en ligne)[5].
+Samedi 14 novembre, Paris, Sarbacane, 2016, 216 p. (ISBN 978-2-84865-922-0, présentation en ligne).
+Le Copain de la fille du tueur, Paris, Nathan, 2016, 263 p. (ISBN 978-2-09-256522-3, présentation en ligne).
 La Brigade de l'ombre, vol. 2 : Ne te fie à personne, Bruxelles, Casterman, 2017, 361 p. (ISBN 978-2-203-15174-1, lire en ligne).
 La Brigade de l'ombre, vol. 3 : Ne compte que sur les tiens, Bruxelles, Casterman, 2017, 353 p. (ISBN 978-2-203-15890-0, lire en ligne).
-Nous sommes l'étincelle, Paris, Pocket Jeunesse, 2019, 511 p. (ISBN 978-2-266-29091-3)[6].
-Comme des sauvages, Pocket Jeunesse, 2020[9].
-Romans pour adultes
-Vincent Villeminot et Christine Pedotti, La Longue Patience du sanglier : roman, Paris, Plon, 2009, 292 p. (ISBN 978-2-259-20520-7 et 2-259-20520-8).
+Nous sommes l'étincelle, Paris, Pocket Jeunesse, 2019, 511 p. (ISBN 978-2-266-29091-3).
+Comme des sauvages, Pocket Jeunesse, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vincent_Villeminot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincent_Villeminot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vincent Villeminot et Christine Pedotti, La Longue Patience du sanglier : roman, Paris, Plon, 2009, 292 p. (ISBN 978-2-259-20520-7 et 2-259-20520-8).
 Fais de moi la colère : roman, Paris, Les Escales, 2018, 274 p. (ISBN 978-2-36569-340-0).</t>
         </is>
       </c>
